--- a/src/test/resources/post/coupang_cu_post.xlsx
+++ b/src/test/resources/post/coupang_cu_post.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
-  <si>
-    <t>수취인명 (30Byte)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우편번호 5자리 , 예 : 00000 </t>
-  </si>
-  <si>
-    <t>주소1(동/읍/면 까지) (80Byte)</t>
-  </si>
-  <si>
-    <t>주소2(나머지주소) (80Byte)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+  <si>
+    <t>수취인명 (30 Byte)</t>
+  </si>
+  <si>
+    <t>주소1(동/읍/면 까지) (100 Byte)</t>
+  </si>
+  <si>
+    <t>주소2(나머지주소) (100 Byte)</t>
   </si>
   <si>
     <t>전화번호 , 예 : 000-0000-0000</t>
@@ -32,18 +29,15 @@
     <t>추가전화번호(선택입력)</t>
   </si>
   <si>
-    <t>배송요청사항 (80Byte) (선택입력)</t>
-  </si>
-  <si>
-    <t>지불방법(선불/후불)</t>
+    <t>배송요청사항 (80 Byte) (선택입력)</t>
+  </si>
+  <si>
+    <t>지불방법(선불/착불)</t>
   </si>
   <si>
     <t>박정훈</t>
   </si>
   <si>
-    <t>08826</t>
-  </si>
-  <si>
     <t>서울특별시 관악구 관악로 1 관악학생생활관 919C동 717호 B ( 신림동 )</t>
   </si>
   <si>
@@ -59,9 +53,6 @@
     <t>정상우</t>
   </si>
   <si>
-    <t>02508</t>
-  </si>
-  <si>
     <t>서울특별시 동대문구 전농로16길 51 래미안 아름숲 아파트 112동 301호 ( 전농동, 래미안아름숲 )</t>
   </si>
   <si>
@@ -72,9 +63,6 @@
   </si>
   <si>
     <t>장충희</t>
-  </si>
-  <si>
-    <t>16439</t>
   </si>
   <si>
     <t>경기도 수원시 팔달구 동말로57번길 8 가우디빌딩 201호 ( 화서동 )</t>
@@ -128,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -156,86 +144,74 @@
       <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="E3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>17</v>
-      </c>
       <c r="G3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>22</v>
-      </c>
       <c r="G4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
